--- a/nr-test-mermaid/ig/ValueSet-droitExerciceComplementaire-vs.xlsx
+++ b/nr-test-mermaid/ig/ValueSet-droitExerciceComplementaire-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T09:47:51+00:00</t>
+    <t>2025-08-19T09:54:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
